--- a/Code/Results/Cases/Case_1_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.320261706049081</v>
+        <v>0.8438921532761299</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1129763237219636</v>
+        <v>0.3062247040731592</v>
       </c>
       <c r="E2">
-        <v>0.1524478186569915</v>
+        <v>0.2740953385551865</v>
       </c>
       <c r="F2">
-        <v>0.5372846499851534</v>
+        <v>0.9862073083706235</v>
       </c>
       <c r="G2">
-        <v>0.4236070144044248</v>
+        <v>0.4603719548457832</v>
       </c>
       <c r="H2">
-        <v>0.2926371481347019</v>
+        <v>0.590654885421813</v>
       </c>
       <c r="I2">
-        <v>0.279161609947904</v>
+        <v>0.8182363920374041</v>
       </c>
       <c r="J2">
-        <v>0.2524374966089127</v>
+        <v>0.3255799491182785</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5805009174525821</v>
+        <v>0.2753347266694703</v>
       </c>
       <c r="M2">
-        <v>0.4351030162599301</v>
+        <v>0.2440649470874305</v>
       </c>
       <c r="N2">
-        <v>1.277201250786632</v>
+        <v>1.586829654340221</v>
       </c>
       <c r="O2">
-        <v>1.461535100010849</v>
+        <v>2.058122183397074</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.15529544481214</v>
+        <v>0.7949974455201527</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1153568043133091</v>
+        <v>0.3081294032537847</v>
       </c>
       <c r="E3">
-        <v>0.1505410534650498</v>
+        <v>0.2741095477202204</v>
       </c>
       <c r="F3">
-        <v>0.5077591278522462</v>
+        <v>0.9865668401574013</v>
       </c>
       <c r="G3">
-        <v>0.3823185381332763</v>
+        <v>0.4534998854772425</v>
       </c>
       <c r="H3">
-        <v>0.2781578257770718</v>
+        <v>0.591016509364735</v>
       </c>
       <c r="I3">
-        <v>0.297594124934641</v>
+        <v>0.8295442808878914</v>
       </c>
       <c r="J3">
-        <v>0.2423023228203078</v>
+        <v>0.3227374178299911</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5057312618634597</v>
+        <v>0.2527862300856754</v>
       </c>
       <c r="M3">
-        <v>0.3798266590680441</v>
+        <v>0.2275370351596919</v>
       </c>
       <c r="N3">
-        <v>1.25001743955157</v>
+        <v>1.581996883621628</v>
       </c>
       <c r="O3">
-        <v>1.343349411900533</v>
+        <v>2.044030728229103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.054068727872618</v>
+        <v>0.7650952327435334</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1169078792101854</v>
+        <v>0.3093705098439385</v>
       </c>
       <c r="E4">
-        <v>0.1494223067855849</v>
+        <v>0.2741616834040403</v>
       </c>
       <c r="F4">
-        <v>0.4905884155298779</v>
+        <v>0.9873367739686572</v>
       </c>
       <c r="G4">
-        <v>0.3576601961292312</v>
+        <v>0.4495999686928798</v>
       </c>
       <c r="H4">
-        <v>0.2697190365182678</v>
+        <v>0.5915162458975516</v>
       </c>
       <c r="I4">
-        <v>0.3095570108647632</v>
+        <v>0.8368817242377951</v>
       </c>
       <c r="J4">
-        <v>0.2361100312147855</v>
+        <v>0.3210226665650424</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.459821286075325</v>
+        <v>0.2389522397988344</v>
       </c>
       <c r="M4">
-        <v>0.3458963307007465</v>
+        <v>0.2174139440950711</v>
       </c>
       <c r="N4">
-        <v>1.234298475443609</v>
+        <v>1.579550259759756</v>
       </c>
       <c r="O4">
-        <v>1.273187019492269</v>
+        <v>2.036626951024658</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.012827229746364</v>
+        <v>0.7529410247171882</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1175622952182818</v>
+        <v>0.3098943174843889</v>
       </c>
       <c r="E5">
-        <v>0.1489795265835117</v>
+        <v>0.2741939114308902</v>
       </c>
       <c r="F5">
-        <v>0.483820288639599</v>
+        <v>0.987788714418862</v>
       </c>
       <c r="G5">
-        <v>0.347774122403095</v>
+        <v>0.4480910740736874</v>
       </c>
       <c r="H5">
-        <v>0.266388394980595</v>
+        <v>0.5917898082269772</v>
       </c>
       <c r="I5">
-        <v>0.3145902809878032</v>
+        <v>0.839970961550645</v>
       </c>
       <c r="J5">
-        <v>0.2335944348325256</v>
+        <v>0.3203317140308428</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4411088621966854</v>
+        <v>0.2333179834241434</v>
       </c>
       <c r="M5">
-        <v>0.3320695150338935</v>
+        <v>0.2132953918276144</v>
       </c>
       <c r="N5">
-        <v>1.228131116461185</v>
+        <v>1.578684788315044</v>
       </c>
       <c r="O5">
-        <v>1.245163541391037</v>
+        <v>2.033923946681057</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.005979479807337</v>
+        <v>0.750924746019507</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1176723054619986</v>
+        <v>0.3099823864574343</v>
       </c>
       <c r="E6">
-        <v>0.148906796810742</v>
+        <v>0.2741999281222203</v>
       </c>
       <c r="F6">
-        <v>0.4827099454828314</v>
+        <v>0.9878721075475454</v>
       </c>
       <c r="G6">
-        <v>0.3461420197112233</v>
+        <v>0.4478453763082371</v>
       </c>
       <c r="H6">
-        <v>0.265841730625624</v>
+        <v>0.5918394583128901</v>
       </c>
       <c r="I6">
-        <v>0.3154354991878758</v>
+        <v>0.840489916833064</v>
       </c>
       <c r="J6">
-        <v>0.2331771965403462</v>
+        <v>0.3202174583022739</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4380013563137197</v>
+        <v>0.2323826270219627</v>
       </c>
       <c r="M6">
-        <v>0.3297735216173692</v>
+        <v>0.212611924415782</v>
       </c>
       <c r="N6">
-        <v>1.227121246370714</v>
+        <v>1.578549040601317</v>
       </c>
       <c r="O6">
-        <v>1.240543556813151</v>
+        <v>2.03349409032495</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05351250183358</v>
+        <v>0.76493118900882</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.11691661463394</v>
+        <v>0.3093775009740818</v>
       </c>
       <c r="E7">
-        <v>0.1494162821265697</v>
+        <v>0.2741620734872505</v>
       </c>
       <c r="F7">
-        <v>0.4904962259537484</v>
+        <v>0.9873423093655376</v>
       </c>
       <c r="G7">
-        <v>0.3575262267975603</v>
+        <v>0.4495792938704568</v>
       </c>
       <c r="H7">
-        <v>0.2696736869397824</v>
+        <v>0.5915196520556094</v>
       </c>
       <c r="I7">
-        <v>0.3096242554966167</v>
+        <v>0.8369229852297737</v>
       </c>
       <c r="J7">
-        <v>0.2360760732493858</v>
+        <v>0.3210133162859776</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4595689433100745</v>
+        <v>0.2388762406364293</v>
       </c>
       <c r="M7">
-        <v>0.3457098601311159</v>
+        <v>0.217358372276891</v>
       </c>
       <c r="N7">
-        <v>1.234214343551912</v>
+        <v>1.579538054265115</v>
       </c>
       <c r="O7">
-        <v>1.272806830914419</v>
+        <v>2.036589225386507</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.263364001924259</v>
+        <v>0.8270091805812569</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1137784544969906</v>
+        <v>0.3068666043773423</v>
       </c>
       <c r="E8">
-        <v>0.1517795908907011</v>
+        <v>0.2740912673099896</v>
       </c>
       <c r="F8">
-        <v>0.5268981093418361</v>
+        <v>0.9862173444181082</v>
       </c>
       <c r="G8">
-        <v>0.409219618435813</v>
+        <v>0.4579361350575937</v>
       </c>
       <c r="H8">
-        <v>0.2875476728292199</v>
+        <v>0.5907219875425511</v>
       </c>
       <c r="I8">
-        <v>0.2853808029446503</v>
+        <v>0.8220535088732399</v>
       </c>
       <c r="J8">
-        <v>0.2489365478783867</v>
+        <v>0.3245935780559392</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5547183924377066</v>
+        <v>0.2675580231867514</v>
       </c>
       <c r="M8">
-        <v>0.4160402669039485</v>
+        <v>0.2383611299796442</v>
       </c>
       <c r="N8">
-        <v>1.267622708446794</v>
+        <v>1.585055599512785</v>
       </c>
       <c r="O8">
-        <v>1.420263334362915</v>
+        <v>2.053004427249192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.675728119127314</v>
+        <v>0.9496451950570304</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1083413865585343</v>
+        <v>0.3025091951039638</v>
       </c>
       <c r="E9">
-        <v>0.1568257359496776</v>
+        <v>0.2742940502255706</v>
       </c>
       <c r="F9">
-        <v>0.6064467614762137</v>
+        <v>0.9883660483864389</v>
       </c>
       <c r="G9">
-        <v>0.5166540755431157</v>
+        <v>0.4768611735184862</v>
       </c>
       <c r="H9">
-        <v>0.3264354639477034</v>
+        <v>0.5913579991776317</v>
       </c>
       <c r="I9">
-        <v>0.2431421851829314</v>
+        <v>0.7960228406561258</v>
       </c>
       <c r="J9">
-        <v>0.2743985305444738</v>
+        <v>0.3318515572525556</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7414745767534328</v>
+        <v>0.3238712254780864</v>
       </c>
       <c r="M9">
-        <v>0.5541542028953614</v>
+        <v>0.279732328695431</v>
       </c>
       <c r="N9">
-        <v>1.34114747905052</v>
+        <v>1.599982392293597</v>
       </c>
       <c r="O9">
-        <v>1.73023194674721</v>
+        <v>2.095097670312583</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.979749155893444</v>
+        <v>1.040243076673903</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1047940629914819</v>
+        <v>0.2996506531674519</v>
       </c>
       <c r="E10">
-        <v>0.1607838813073101</v>
+        <v>0.2746476578419355</v>
       </c>
       <c r="F10">
-        <v>0.670695015934335</v>
+        <v>0.9925976229812861</v>
       </c>
       <c r="G10">
-        <v>0.6001174244048997</v>
+        <v>0.4923168551643471</v>
       </c>
       <c r="H10">
-        <v>0.3577201406670412</v>
+        <v>0.5931632214488189</v>
       </c>
       <c r="I10">
-        <v>0.215603374678123</v>
+        <v>0.7788036673378587</v>
       </c>
       <c r="J10">
-        <v>0.293255118234363</v>
+        <v>0.3373217389224337</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8790653304649254</v>
+        <v>0.3652660070685272</v>
       </c>
       <c r="M10">
-        <v>0.6559351762006926</v>
+        <v>0.310224076063534</v>
       </c>
       <c r="N10">
-        <v>1.400494306077604</v>
+        <v>1.613422460984154</v>
       </c>
       <c r="O10">
-        <v>1.97320498856547</v>
+        <v>2.132064018062664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.118416728540865</v>
+        <v>1.081555850070288</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1032798560840504</v>
+        <v>0.2984241469770819</v>
       </c>
       <c r="E11">
-        <v>0.1626391728314651</v>
+        <v>0.2748521930246177</v>
       </c>
       <c r="F11">
-        <v>0.7013776609346394</v>
+        <v>0.9950984506898948</v>
       </c>
       <c r="G11">
-        <v>0.639267981465494</v>
+        <v>0.4996860457737711</v>
       </c>
       <c r="H11">
-        <v>0.3726301584347738</v>
+        <v>0.5942743304499629</v>
       </c>
       <c r="I11">
-        <v>0.2038940544616423</v>
+        <v>0.77138364379711</v>
       </c>
       <c r="J11">
-        <v>0.3018669753750416</v>
+        <v>0.3398387734658712</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9418095518290102</v>
+        <v>0.3840981905700858</v>
       </c>
       <c r="M11">
-        <v>0.702350891254568</v>
+        <v>0.3241131910925645</v>
       </c>
       <c r="N11">
-        <v>1.428754389009015</v>
+        <v>1.620067608276003</v>
       </c>
       <c r="O11">
-        <v>2.087651942374691</v>
+        <v>2.150193685371619</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.17099036610864</v>
+        <v>1.097213127456712</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1027209963616866</v>
+        <v>0.2979702819762071</v>
       </c>
       <c r="E12">
-        <v>0.1633496103926824</v>
+        <v>0.2749358605958214</v>
       </c>
       <c r="F12">
-        <v>0.7132228386398651</v>
+        <v>0.9961281972464491</v>
       </c>
       <c r="G12">
-        <v>0.6542807411438503</v>
+        <v>0.5025252557650077</v>
       </c>
       <c r="H12">
-        <v>0.3783815881229771</v>
+        <v>0.5947366950690594</v>
       </c>
       <c r="I12">
-        <v>0.1995830199366586</v>
+        <v>0.7686332657032628</v>
       </c>
       <c r="J12">
-        <v>0.3051330136983808</v>
+        <v>0.3407958953870747</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9655970790567494</v>
+        <v>0.3912292334378549</v>
       </c>
       <c r="M12">
-        <v>0.7199477669490975</v>
+        <v>0.3293749216669752</v>
       </c>
       <c r="N12">
-        <v>1.439646464532558</v>
+        <v>1.622659782892725</v>
       </c>
       <c r="O12">
-        <v>2.131606625642348</v>
+        <v>2.157247737241477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.159664704723468</v>
+        <v>1.09384049327258</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1028407063801628</v>
+        <v>0.2980675596462481</v>
       </c>
       <c r="E13">
-        <v>0.1631962542034486</v>
+        <v>0.2749175659458594</v>
       </c>
       <c r="F13">
-        <v>0.7106614199599761</v>
+        <v>0.9959027442799453</v>
       </c>
       <c r="G13">
-        <v>0.651038858370157</v>
+        <v>0.5019116169501672</v>
       </c>
       <c r="H13">
-        <v>0.3771381010952126</v>
+        <v>0.5946352670964359</v>
       </c>
       <c r="I13">
-        <v>0.2005059181533215</v>
+        <v>0.7692229655387042</v>
       </c>
       <c r="J13">
-        <v>0.3044293943247567</v>
+        <v>0.3405895874693456</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9604726857687353</v>
+        <v>0.3896934570661585</v>
       </c>
       <c r="M13">
-        <v>0.7161570020148247</v>
+        <v>0.3282416213257306</v>
       </c>
       <c r="N13">
-        <v>1.437292035711991</v>
+        <v>1.622098149640522</v>
       </c>
       <c r="O13">
-        <v>2.122111918707049</v>
+        <v>2.155720128926276</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.122740663119657</v>
+        <v>1.082843729829619</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1032335856200284</v>
+        <v>0.2983865952622669</v>
       </c>
       <c r="E14">
-        <v>0.1626974629365954</v>
+        <v>0.2748589522357143</v>
       </c>
       <c r="F14">
-        <v>0.7023475338579601</v>
+        <v>0.9951815107903599</v>
       </c>
       <c r="G14">
-        <v>0.6404992338927258</v>
+        <v>0.499918654087864</v>
       </c>
       <c r="H14">
-        <v>0.3731011747370445</v>
+        <v>0.5943115359409177</v>
       </c>
       <c r="I14">
-        <v>0.2035368856215141</v>
+        <v>0.7711561774476321</v>
       </c>
       <c r="J14">
-        <v>0.3021355754644119</v>
+        <v>0.3399174375876584</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9437659781966659</v>
+        <v>0.3846848746192677</v>
       </c>
       <c r="M14">
-        <v>0.7037981686432744</v>
+        <v>0.3245460345617346</v>
       </c>
       <c r="N14">
-        <v>1.429646613461813</v>
+        <v>1.620279352186046</v>
       </c>
       <c r="O14">
-        <v>2.091255458131712</v>
+        <v>2.150770244633492</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.100132181389824</v>
+        <v>1.076109553847402</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.103476135863438</v>
+        <v>0.298583391413664</v>
       </c>
       <c r="E15">
-        <v>0.1623929655278396</v>
+        <v>0.2748238570014863</v>
       </c>
       <c r="F15">
-        <v>0.6972850350232704</v>
+        <v>0.994750507169698</v>
       </c>
       <c r="G15">
-        <v>0.6340683312485709</v>
+        <v>0.4987042435974445</v>
       </c>
       <c r="H15">
-        <v>0.3706423970550645</v>
+        <v>0.5941186580758142</v>
       </c>
       <c r="I15">
-        <v>0.2054096269079464</v>
+        <v>0.7723480650555237</v>
       </c>
       <c r="J15">
-        <v>0.3007311869958684</v>
+        <v>0.3395062399598459</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9335364120881025</v>
+        <v>0.3816169195211501</v>
       </c>
       <c r="M15">
-        <v>0.6962307787985154</v>
+        <v>0.3222826586755474</v>
       </c>
       <c r="N15">
-        <v>1.424988668375619</v>
+        <v>1.619175140617386</v>
       </c>
       <c r="O15">
-        <v>2.07243684639684</v>
+        <v>2.147762872968428</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.97069516450324</v>
+        <v>1.037545081146675</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1048950413352299</v>
+        <v>0.2997322915029392</v>
       </c>
       <c r="E16">
-        <v>0.1606637352502176</v>
+        <v>0.2746351642204736</v>
       </c>
       <c r="F16">
-        <v>0.6687205553026274</v>
+        <v>0.9924457698067499</v>
       </c>
       <c r="G16">
-        <v>0.5975840889642114</v>
+        <v>0.4918420697962631</v>
       </c>
       <c r="H16">
-        <v>0.3567600408241134</v>
+        <v>0.593096434975763</v>
       </c>
       <c r="I16">
-        <v>0.2163855242380635</v>
+        <v>0.7792968974275682</v>
       </c>
       <c r="J16">
-        <v>0.2926929979725728</v>
+        <v>0.3371578087414306</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8749684032915752</v>
+        <v>0.364035265907745</v>
       </c>
       <c r="M16">
-        <v>0.6529044254380238</v>
+        <v>0.3093167228717917</v>
       </c>
       <c r="N16">
-        <v>1.398673613042945</v>
+        <v>1.612998823937829</v>
       </c>
       <c r="O16">
-        <v>1.965808872982734</v>
+        <v>2.130905620757488</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.891390925053742</v>
+        <v>1.013911573873088</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1057911347487526</v>
+        <v>0.3004559968850673</v>
       </c>
       <c r="E17">
-        <v>0.1596169253483275</v>
+        <v>0.2745305469281938</v>
       </c>
       <c r="F17">
-        <v>0.6515817938254216</v>
+        <v>0.9911793303454743</v>
       </c>
       <c r="G17">
-        <v>0.5755170062641923</v>
+        <v>0.4877190067274455</v>
       </c>
       <c r="H17">
-        <v>0.3484228042189841</v>
+        <v>0.5925435315692766</v>
       </c>
       <c r="I17">
-        <v>0.2233321882386345</v>
+        <v>0.7836655949454645</v>
       </c>
       <c r="J17">
-        <v>0.2877705305560454</v>
+        <v>0.3357243530356016</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.839081967518041</v>
+        <v>0.353249508975864</v>
       </c>
       <c r="M17">
-        <v>0.6263571239937775</v>
+        <v>0.301366933029648</v>
       </c>
       <c r="N17">
-        <v>1.382859876687178</v>
+        <v>1.60934548797789</v>
       </c>
       <c r="O17">
-        <v>1.90143588146239</v>
+        <v>2.12090056216033</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.845811082807501</v>
+        <v>1.000327631229254</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1063158935349682</v>
+        <v>0.3008792070805564</v>
       </c>
       <c r="E18">
-        <v>0.1590199762072082</v>
+        <v>0.2744744888863409</v>
       </c>
       <c r="F18">
-        <v>0.6418599803546954</v>
+        <v>0.9905051151655115</v>
       </c>
       <c r="G18">
-        <v>0.5629348259373188</v>
+        <v>0.4853793742132808</v>
       </c>
       <c r="H18">
-        <v>0.3436908120582558</v>
+        <v>0.5922528078845346</v>
       </c>
       <c r="I18">
-        <v>0.227404403966815</v>
+        <v>0.7862172322805114</v>
       </c>
       <c r="J18">
-        <v>0.2849424441105555</v>
+        <v>0.3349025695688681</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.818455125888363</v>
+        <v>0.3470459975563926</v>
       </c>
       <c r="M18">
-        <v>0.6110984074327632</v>
+        <v>0.2967961674959767</v>
       </c>
       <c r="N18">
-        <v>1.373882536637595</v>
+        <v>1.607294218617426</v>
       </c>
       <c r="O18">
-        <v>1.864775595538504</v>
+        <v>2.115269557527483</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.83038404004327</v>
+        <v>0.9957299989193586</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1064951668525849</v>
+        <v>0.3010236941924274</v>
       </c>
       <c r="E19">
-        <v>0.1588187435656856</v>
+        <v>0.2744562173828271</v>
       </c>
       <c r="F19">
-        <v>0.6385911900956316</v>
+        <v>0.9902861497901796</v>
       </c>
       <c r="G19">
-        <v>0.5586931396874064</v>
+        <v>0.4845926838947463</v>
       </c>
       <c r="H19">
-        <v>0.3420992954571744</v>
+        <v>0.5921590635385172</v>
       </c>
       <c r="I19">
-        <v>0.2287961963891707</v>
+        <v>0.7870878494092772</v>
       </c>
       <c r="J19">
-        <v>0.2839854492423299</v>
+        <v>0.3346247962140154</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8114734886384554</v>
+        <v>0.344945640065589</v>
       </c>
       <c r="M19">
-        <v>0.6059337785469481</v>
+        <v>0.2952488965159574</v>
       </c>
       <c r="N19">
-        <v>1.370863016593262</v>
+        <v>1.606608305119565</v>
       </c>
       <c r="O19">
-        <v>1.852424249354499</v>
+        <v>2.113384235614006</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.899829419043186</v>
+        <v>1.016426434671473</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1056947748082817</v>
+        <v>0.3003782377501656</v>
       </c>
       <c r="E20">
-        <v>0.1597278271872788</v>
+        <v>0.2745412582051507</v>
       </c>
       <c r="F20">
-        <v>0.6533920543487923</v>
+        <v>0.9913085352459206</v>
       </c>
       <c r="G20">
-        <v>0.5778545560786768</v>
+        <v>0.4881546180067318</v>
       </c>
       <c r="H20">
-        <v>0.3493037045073493</v>
+        <v>0.5925995650389382</v>
       </c>
       <c r="I20">
-        <v>0.222584730006171</v>
+        <v>0.7831965157179228</v>
       </c>
       <c r="J20">
-        <v>0.288294205625931</v>
+        <v>0.3358766681771854</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8429006429552999</v>
+        <v>0.3543976572473184</v>
       </c>
       <c r="M20">
-        <v>0.629182007674288</v>
+        <v>0.30221302422013</v>
       </c>
       <c r="N20">
-        <v>1.384530968536723</v>
+        <v>1.60972921785914</v>
       </c>
       <c r="O20">
-        <v>1.908250311713346</v>
+        <v>2.121952822389261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.133584345484223</v>
+        <v>1.086073402294005</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1031177909932652</v>
+        <v>0.2982925997339878</v>
       </c>
       <c r="E21">
-        <v>0.1628437560303482</v>
+        <v>0.274876000368927</v>
       </c>
       <c r="F21">
-        <v>0.7047832406862398</v>
+        <v>0.9953911096536672</v>
       </c>
       <c r="G21">
-        <v>0.6435897510810236</v>
+        <v>0.5005027149957897</v>
       </c>
       <c r="H21">
-        <v>0.3742839948001091</v>
+        <v>0.5944054949056152</v>
       </c>
       <c r="I21">
-        <v>0.2026432338552948</v>
+        <v>0.7705867332991057</v>
       </c>
       <c r="J21">
-        <v>0.3028091917942035</v>
+        <v>0.3401147575201051</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9486723459280313</v>
+        <v>0.38615602880094</v>
       </c>
       <c r="M21">
-        <v>0.7074276769433823</v>
+        <v>0.325631460818542</v>
       </c>
       <c r="N21">
-        <v>1.431887012379917</v>
+        <v>1.620811524473908</v>
       </c>
       <c r="O21">
-        <v>2.100301589588184</v>
+        <v>2.152219024401177</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.286730738424183</v>
+        <v>1.131667069208106</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1015184387216865</v>
+        <v>0.2969912037509665</v>
       </c>
       <c r="E22">
-        <v>0.1649261356852882</v>
+        <v>0.2751309662552153</v>
       </c>
       <c r="F22">
-        <v>0.7396982107856189</v>
+        <v>0.9985415308465093</v>
       </c>
       <c r="G22">
-        <v>0.6876520131098829</v>
+        <v>0.5088565248776717</v>
       </c>
       <c r="H22">
-        <v>0.3912279798974652</v>
+        <v>0.5958282841270233</v>
       </c>
       <c r="I22">
-        <v>0.1903301178387822</v>
+        <v>0.7626918908378797</v>
       </c>
       <c r="J22">
-        <v>0.3123242651489875</v>
+        <v>0.3429077017945943</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.017964377278986</v>
+        <v>0.4069099969138676</v>
       </c>
       <c r="M22">
-        <v>0.7586857227891386</v>
+        <v>0.3409495406135079</v>
       </c>
       <c r="N22">
-        <v>1.463952407186184</v>
+        <v>1.628496015417937</v>
       </c>
       <c r="O22">
-        <v>2.229436382721389</v>
+        <v>2.173099792863042</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.204955730313941</v>
+        <v>1.107326391985396</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.102364198024993</v>
+        <v>0.2976801500889108</v>
       </c>
       <c r="E23">
-        <v>0.1638105194615598</v>
+        <v>0.2749915963528728</v>
       </c>
       <c r="F23">
-        <v>0.720936042578316</v>
+        <v>0.9968159921770052</v>
       </c>
       <c r="G23">
-        <v>0.6640284663263856</v>
+        <v>0.5043719867600913</v>
       </c>
       <c r="H23">
-        <v>0.382125414218379</v>
+        <v>0.5950467503090522</v>
       </c>
       <c r="I23">
-        <v>0.1968341526619866</v>
+        <v>0.7668738146125635</v>
       </c>
       <c r="J23">
-        <v>0.3072432442342077</v>
+        <v>0.3414149867020626</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9809649333573702</v>
+        <v>0.3958335617247144</v>
       </c>
       <c r="M23">
-        <v>0.7313160582044773</v>
+        <v>0.3327729568024864</v>
       </c>
       <c r="N23">
-        <v>1.44673332945176</v>
+        <v>1.624354446152211</v>
       </c>
       <c r="O23">
-        <v>2.160165284927984</v>
+        <v>2.161854725341385</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.896014335511239</v>
+        <v>1.015289455803213</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1057383093064832</v>
+        <v>0.3004133704061438</v>
       </c>
       <c r="E24">
-        <v>0.1596776732794893</v>
+        <v>0.2745364028992618</v>
       </c>
       <c r="F24">
-        <v>0.6525732272799516</v>
+        <v>0.9912499538804056</v>
       </c>
       <c r="G24">
-        <v>0.5767974256667969</v>
+        <v>0.4879575822977671</v>
       </c>
       <c r="H24">
-        <v>0.3489052594557336</v>
+        <v>0.5925741477370394</v>
       </c>
       <c r="I24">
-        <v>0.2229224118098472</v>
+        <v>0.7834084617959816</v>
       </c>
       <c r="J24">
-        <v>0.2880574461937115</v>
+        <v>0.3358077992362922</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8411742054162517</v>
+        <v>0.3538785875861379</v>
       </c>
       <c r="M24">
-        <v>0.6279048665746458</v>
+        <v>0.3018305073755769</v>
       </c>
       <c r="N24">
-        <v>1.383775112916496</v>
+        <v>1.609555580649427</v>
       </c>
       <c r="O24">
-        <v>1.905168425924103</v>
+        <v>2.121476718507836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.564028481990334</v>
+        <v>0.9163778276064818</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1097344915859613</v>
+        <v>0.3036276040710204</v>
       </c>
       <c r="E25">
-        <v>0.1554166017178993</v>
+        <v>0.2742029956379639</v>
       </c>
       <c r="F25">
-        <v>0.583970117389697</v>
+        <v>0.9873187479645225</v>
       </c>
       <c r="G25">
-        <v>0.486857814483983</v>
+        <v>0.4714693270740327</v>
       </c>
       <c r="H25">
-        <v>0.3154671658475365</v>
+        <v>0.5909507398533975</v>
       </c>
       <c r="I25">
-        <v>0.2539749009632715</v>
+        <v>0.8027300789112628</v>
       </c>
       <c r="J25">
-        <v>0.267484317862646</v>
+        <v>0.3298634027263674</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6909065714388589</v>
+        <v>0.3086317867320361</v>
       </c>
       <c r="M25">
-        <v>0.5167510098010624</v>
+        <v>0.2685222276201884</v>
       </c>
       <c r="N25">
-        <v>1.32035510704219</v>
+        <v>1.595507785447779</v>
       </c>
       <c r="O25">
-        <v>1.643895005349918</v>
+        <v>2.082649788875273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_178/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8438921532761299</v>
+        <v>1.320261706049081</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3062247040731592</v>
+        <v>0.1129763237219676</v>
       </c>
       <c r="E2">
-        <v>0.2740953385551865</v>
+        <v>0.1524478186569915</v>
       </c>
       <c r="F2">
-        <v>0.9862073083706235</v>
+        <v>0.5372846499851391</v>
       </c>
       <c r="G2">
-        <v>0.4603719548457832</v>
+        <v>0.4236070144044106</v>
       </c>
       <c r="H2">
-        <v>0.590654885421813</v>
+        <v>0.2926371481345882</v>
       </c>
       <c r="I2">
-        <v>0.8182363920374041</v>
+        <v>0.2791616099479031</v>
       </c>
       <c r="J2">
-        <v>0.3255799491182785</v>
+        <v>0.2524374966087919</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2753347266694703</v>
+        <v>0.580500917452639</v>
       </c>
       <c r="M2">
-        <v>0.2440649470874305</v>
+        <v>0.4351030162599514</v>
       </c>
       <c r="N2">
-        <v>1.586829654340221</v>
+        <v>1.277201250786632</v>
       </c>
       <c r="O2">
-        <v>2.058122183397074</v>
+        <v>1.461535100010877</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7949974455201527</v>
+        <v>1.155295444812026</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3081294032537847</v>
+        <v>0.1153568043135338</v>
       </c>
       <c r="E3">
-        <v>0.2741095477202204</v>
+        <v>0.1505410534650515</v>
       </c>
       <c r="F3">
-        <v>0.9865668401574013</v>
+        <v>0.5077591278522533</v>
       </c>
       <c r="G3">
-        <v>0.4534998854772425</v>
+        <v>0.3823185381332905</v>
       </c>
       <c r="H3">
-        <v>0.591016509364735</v>
+        <v>0.2781578257770718</v>
       </c>
       <c r="I3">
-        <v>0.8295442808878914</v>
+        <v>0.2975941249346281</v>
       </c>
       <c r="J3">
-        <v>0.3227374178299911</v>
+        <v>0.2423023228203718</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2527862300856754</v>
+        <v>0.5057312618633603</v>
       </c>
       <c r="M3">
-        <v>0.2275370351596919</v>
+        <v>0.379826659068037</v>
       </c>
       <c r="N3">
-        <v>1.581996883621628</v>
+        <v>1.250017439551499</v>
       </c>
       <c r="O3">
-        <v>2.044030728229103</v>
+        <v>1.343349411900533</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7650952327435334</v>
+        <v>1.05406872787276</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3093705098439385</v>
+        <v>0.1169078792101423</v>
       </c>
       <c r="E4">
-        <v>0.2741616834040403</v>
+        <v>0.1494223067855849</v>
       </c>
       <c r="F4">
-        <v>0.9873367739686572</v>
+        <v>0.4905884155298779</v>
       </c>
       <c r="G4">
-        <v>0.4495999686928798</v>
+        <v>0.3576601961291601</v>
       </c>
       <c r="H4">
-        <v>0.5915162458975516</v>
+        <v>0.2697190365182678</v>
       </c>
       <c r="I4">
-        <v>0.8368817242377951</v>
+        <v>0.3095570108647818</v>
       </c>
       <c r="J4">
-        <v>0.3210226665650424</v>
+        <v>0.2361100312147286</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2389522397988344</v>
+        <v>0.459821286075254</v>
       </c>
       <c r="M4">
-        <v>0.2174139440950711</v>
+        <v>0.3458963307007679</v>
       </c>
       <c r="N4">
-        <v>1.579550259759756</v>
+        <v>1.234298475443595</v>
       </c>
       <c r="O4">
-        <v>2.036626951024658</v>
+        <v>1.273187019492269</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7529410247171882</v>
+        <v>1.012827229746364</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3098943174843889</v>
+        <v>0.1175622952184785</v>
       </c>
       <c r="E5">
-        <v>0.2741939114308902</v>
+        <v>0.1489795265835099</v>
       </c>
       <c r="F5">
-        <v>0.987788714418862</v>
+        <v>0.4838202886396061</v>
       </c>
       <c r="G5">
-        <v>0.4480910740736874</v>
+        <v>0.3477741224031519</v>
       </c>
       <c r="H5">
-        <v>0.5917898082269772</v>
+        <v>0.2663883949804813</v>
       </c>
       <c r="I5">
-        <v>0.839970961550645</v>
+        <v>0.3145902809878054</v>
       </c>
       <c r="J5">
-        <v>0.3203317140308428</v>
+        <v>0.2335944348325043</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2333179834241434</v>
+        <v>0.4411088621965575</v>
       </c>
       <c r="M5">
-        <v>0.2132953918276144</v>
+        <v>0.3320695150338793</v>
       </c>
       <c r="N5">
-        <v>1.578684788315044</v>
+        <v>1.228131116461128</v>
       </c>
       <c r="O5">
-        <v>2.033923946681057</v>
+        <v>1.24516354139098</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.750924746019507</v>
+        <v>1.005979479807252</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3099823864574343</v>
+        <v>0.1176723054620998</v>
       </c>
       <c r="E6">
-        <v>0.2741999281222203</v>
+        <v>0.1489067968107385</v>
       </c>
       <c r="F6">
-        <v>0.9878721075475454</v>
+        <v>0.4827099454828314</v>
       </c>
       <c r="G6">
-        <v>0.4478453763082371</v>
+        <v>0.3461420197112375</v>
       </c>
       <c r="H6">
-        <v>0.5918394583128901</v>
+        <v>0.2658417306257235</v>
       </c>
       <c r="I6">
-        <v>0.840489916833064</v>
+        <v>0.3154354991878692</v>
       </c>
       <c r="J6">
-        <v>0.3202174583022739</v>
+        <v>0.2331771965402751</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2323826270219627</v>
+        <v>0.4380013563137055</v>
       </c>
       <c r="M6">
-        <v>0.212611924415782</v>
+        <v>0.3297735216173763</v>
       </c>
       <c r="N6">
-        <v>1.578549040601317</v>
+        <v>1.227121246370643</v>
       </c>
       <c r="O6">
-        <v>2.03349409032495</v>
+        <v>1.240543556813009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.76493118900882</v>
+        <v>1.053512501833779</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3093775009740818</v>
+        <v>0.1169166146340093</v>
       </c>
       <c r="E7">
-        <v>0.2741620734872505</v>
+        <v>0.149416282126559</v>
       </c>
       <c r="F7">
-        <v>0.9873423093655376</v>
+        <v>0.4904962259537555</v>
       </c>
       <c r="G7">
-        <v>0.4495792938704568</v>
+        <v>0.3575262267976171</v>
       </c>
       <c r="H7">
-        <v>0.5915196520556094</v>
+        <v>0.2696736869397824</v>
       </c>
       <c r="I7">
-        <v>0.8369229852297737</v>
+        <v>0.3096242554966193</v>
       </c>
       <c r="J7">
-        <v>0.3210133162859776</v>
+        <v>0.2360760732494356</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2388762406364293</v>
+        <v>0.4595689433101882</v>
       </c>
       <c r="M7">
-        <v>0.217358372276891</v>
+        <v>0.3457098601311159</v>
       </c>
       <c r="N7">
-        <v>1.579538054265115</v>
+        <v>1.234214343551912</v>
       </c>
       <c r="O7">
-        <v>2.036589225386507</v>
+        <v>1.272806830914419</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8270091805812569</v>
+        <v>1.263364001924259</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3068666043773423</v>
+        <v>0.1137784544967597</v>
       </c>
       <c r="E8">
-        <v>0.2740912673099896</v>
+        <v>0.1517795908906692</v>
       </c>
       <c r="F8">
-        <v>0.9862173444181082</v>
+        <v>0.5268981093418361</v>
       </c>
       <c r="G8">
-        <v>0.4579361350575937</v>
+        <v>0.4092196184358983</v>
       </c>
       <c r="H8">
-        <v>0.5907219875425511</v>
+        <v>0.2875476728293478</v>
       </c>
       <c r="I8">
-        <v>0.8220535088732399</v>
+        <v>0.285380802944645</v>
       </c>
       <c r="J8">
-        <v>0.3245935780559392</v>
+        <v>0.2489365478783583</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2675580231867514</v>
+        <v>0.5547183924377634</v>
       </c>
       <c r="M8">
-        <v>0.2383611299796442</v>
+        <v>0.41604026690392</v>
       </c>
       <c r="N8">
-        <v>1.585055599512785</v>
+        <v>1.26762270844678</v>
       </c>
       <c r="O8">
-        <v>2.053004427249192</v>
+        <v>1.420263334362915</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9496451950570304</v>
+        <v>1.675728119127342</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3025091951039638</v>
+        <v>0.1083413865584197</v>
       </c>
       <c r="E9">
-        <v>0.2742940502255706</v>
+        <v>0.1568257359496741</v>
       </c>
       <c r="F9">
-        <v>0.9883660483864389</v>
+        <v>0.6064467614761995</v>
       </c>
       <c r="G9">
-        <v>0.4768611735184862</v>
+        <v>0.5166540755430589</v>
       </c>
       <c r="H9">
-        <v>0.5913579991776317</v>
+        <v>0.3264354639476892</v>
       </c>
       <c r="I9">
-        <v>0.7960228406561258</v>
+        <v>0.2431421851829159</v>
       </c>
       <c r="J9">
-        <v>0.3318515572525556</v>
+        <v>0.2743985305444099</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3238712254780864</v>
+        <v>0.7414745767535749</v>
       </c>
       <c r="M9">
-        <v>0.279732328695431</v>
+        <v>0.5541542028953543</v>
       </c>
       <c r="N9">
-        <v>1.599982392293597</v>
+        <v>1.341147479050591</v>
       </c>
       <c r="O9">
-        <v>2.095097670312583</v>
+        <v>1.73023194674721</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.040243076673903</v>
+        <v>1.979749155893558</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2996506531674519</v>
+        <v>0.1047940629916484</v>
       </c>
       <c r="E10">
-        <v>0.2746476578419355</v>
+        <v>0.1607838813073208</v>
       </c>
       <c r="F10">
-        <v>0.9925976229812861</v>
+        <v>0.670695015934335</v>
       </c>
       <c r="G10">
-        <v>0.4923168551643471</v>
+        <v>0.6001174244048855</v>
       </c>
       <c r="H10">
-        <v>0.5931632214488189</v>
+        <v>0.3577201406670412</v>
       </c>
       <c r="I10">
-        <v>0.7788036673378587</v>
+        <v>0.2156033746781185</v>
       </c>
       <c r="J10">
-        <v>0.3373217389224337</v>
+        <v>0.2932551182344483</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3652660070685272</v>
+        <v>0.8790653304648686</v>
       </c>
       <c r="M10">
-        <v>0.310224076063534</v>
+        <v>0.655935176200714</v>
       </c>
       <c r="N10">
-        <v>1.613422460984154</v>
+        <v>1.400494306077533</v>
       </c>
       <c r="O10">
-        <v>2.132064018062664</v>
+        <v>1.97320498856547</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.081555850070288</v>
+        <v>2.118416728540865</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2984241469770819</v>
+        <v>0.1032798560838781</v>
       </c>
       <c r="E11">
-        <v>0.2748521930246177</v>
+        <v>0.1626391728314651</v>
       </c>
       <c r="F11">
-        <v>0.9950984506898948</v>
+        <v>0.7013776609346536</v>
       </c>
       <c r="G11">
-        <v>0.4996860457737711</v>
+        <v>0.639267981465494</v>
       </c>
       <c r="H11">
-        <v>0.5942743304499629</v>
+        <v>0.3726301584347738</v>
       </c>
       <c r="I11">
-        <v>0.77138364379711</v>
+        <v>0.203894054461657</v>
       </c>
       <c r="J11">
-        <v>0.3398387734658712</v>
+        <v>0.3018669753751695</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3840981905700858</v>
+        <v>0.941809551829067</v>
       </c>
       <c r="M11">
-        <v>0.3241131910925645</v>
+        <v>0.7023508912545608</v>
       </c>
       <c r="N11">
-        <v>1.620067608276003</v>
+        <v>1.428754389009015</v>
       </c>
       <c r="O11">
-        <v>2.150193685371619</v>
+        <v>2.087651942374634</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.097213127456712</v>
+        <v>2.170990366108413</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2979702819762071</v>
+        <v>0.1027209963616231</v>
       </c>
       <c r="E12">
-        <v>0.2749358605958214</v>
+        <v>0.1633496103926824</v>
       </c>
       <c r="F12">
-        <v>0.9961281972464491</v>
+        <v>0.7132228386398793</v>
       </c>
       <c r="G12">
-        <v>0.5025252557650077</v>
+        <v>0.6542807411438503</v>
       </c>
       <c r="H12">
-        <v>0.5947366950690594</v>
+        <v>0.3783815881229771</v>
       </c>
       <c r="I12">
-        <v>0.7686332657032628</v>
+        <v>0.199583019936644</v>
       </c>
       <c r="J12">
-        <v>0.3407958953870747</v>
+        <v>0.3051330136985015</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3912292334378549</v>
+        <v>0.9655970790568063</v>
       </c>
       <c r="M12">
-        <v>0.3293749216669752</v>
+        <v>0.7199477669491117</v>
       </c>
       <c r="N12">
-        <v>1.622659782892725</v>
+        <v>1.439646464532558</v>
       </c>
       <c r="O12">
-        <v>2.157247737241477</v>
+        <v>2.13160662564232</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.09384049327258</v>
+        <v>2.159664704723468</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2980675596462481</v>
+        <v>0.1028407063801473</v>
       </c>
       <c r="E13">
-        <v>0.2749175659458594</v>
+        <v>0.1631962542034344</v>
       </c>
       <c r="F13">
-        <v>0.9959027442799453</v>
+        <v>0.7106614199599619</v>
       </c>
       <c r="G13">
-        <v>0.5019116169501672</v>
+        <v>0.6510388583701001</v>
       </c>
       <c r="H13">
-        <v>0.5946352670964359</v>
+        <v>0.3771381010950989</v>
       </c>
       <c r="I13">
-        <v>0.7692229655387042</v>
+        <v>0.2005059181533198</v>
       </c>
       <c r="J13">
-        <v>0.3405895874693456</v>
+        <v>0.3044293943246856</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3896934570661585</v>
+        <v>0.9604726857687069</v>
       </c>
       <c r="M13">
-        <v>0.3282416213257306</v>
+        <v>0.7161570020148247</v>
       </c>
       <c r="N13">
-        <v>1.622098149640522</v>
+        <v>1.437292035712048</v>
       </c>
       <c r="O13">
-        <v>2.155720128926276</v>
+        <v>2.122111918707077</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.082843729829619</v>
+        <v>2.1227406631196</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2983865952622669</v>
+        <v>0.1032335856202451</v>
       </c>
       <c r="E14">
-        <v>0.2748589522357143</v>
+        <v>0.1626974629366167</v>
       </c>
       <c r="F14">
-        <v>0.9951815107903599</v>
+        <v>0.7023475338579459</v>
       </c>
       <c r="G14">
-        <v>0.499918654087864</v>
+        <v>0.6404992338926547</v>
       </c>
       <c r="H14">
-        <v>0.5943115359409177</v>
+        <v>0.3731011747370445</v>
       </c>
       <c r="I14">
-        <v>0.7711561774476321</v>
+        <v>0.2035368856215083</v>
       </c>
       <c r="J14">
-        <v>0.3399174375876584</v>
+        <v>0.3021355754643835</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3846848746192677</v>
+        <v>0.9437659781966659</v>
       </c>
       <c r="M14">
-        <v>0.3245460345617346</v>
+        <v>0.7037981686432673</v>
       </c>
       <c r="N14">
-        <v>1.620279352186046</v>
+        <v>1.429646613461728</v>
       </c>
       <c r="O14">
-        <v>2.150770244633492</v>
+        <v>2.091255458131798</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.076109553847402</v>
+        <v>2.100132181389824</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.298583391413664</v>
+        <v>0.1034761358632648</v>
       </c>
       <c r="E15">
-        <v>0.2748238570014863</v>
+        <v>0.1623929655278396</v>
       </c>
       <c r="F15">
-        <v>0.994750507169698</v>
+        <v>0.6972850350232704</v>
       </c>
       <c r="G15">
-        <v>0.4987042435974445</v>
+        <v>0.6340683312485709</v>
       </c>
       <c r="H15">
-        <v>0.5941186580758142</v>
+        <v>0.3706423970550645</v>
       </c>
       <c r="I15">
-        <v>0.7723480650555237</v>
+        <v>0.205409626907946</v>
       </c>
       <c r="J15">
-        <v>0.3395062399598459</v>
+        <v>0.3007311869958258</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3816169195211501</v>
+        <v>0.9335364120881025</v>
       </c>
       <c r="M15">
-        <v>0.3222826586755474</v>
+        <v>0.6962307787985154</v>
       </c>
       <c r="N15">
-        <v>1.619175140617386</v>
+        <v>1.424988668375633</v>
       </c>
       <c r="O15">
-        <v>2.147762872968428</v>
+        <v>2.072436846396926</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.037545081146675</v>
+        <v>1.97069516450324</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2997322915029392</v>
+        <v>0.10489504133534</v>
       </c>
       <c r="E16">
-        <v>0.2746351642204736</v>
+        <v>0.160663735250214</v>
       </c>
       <c r="F16">
-        <v>0.9924457698067499</v>
+        <v>0.6687205553026274</v>
       </c>
       <c r="G16">
-        <v>0.4918420697962631</v>
+        <v>0.5975840889642114</v>
       </c>
       <c r="H16">
-        <v>0.593096434975763</v>
+        <v>0.3567600408241134</v>
       </c>
       <c r="I16">
-        <v>0.7792968974275682</v>
+        <v>0.2163855242380492</v>
       </c>
       <c r="J16">
-        <v>0.3371578087414306</v>
+        <v>0.2926929979726509</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.364035265907745</v>
+        <v>0.8749684032918026</v>
       </c>
       <c r="M16">
-        <v>0.3093167228717917</v>
+        <v>0.6529044254380381</v>
       </c>
       <c r="N16">
-        <v>1.612998823937829</v>
+        <v>1.398673613042945</v>
       </c>
       <c r="O16">
-        <v>2.130905620757488</v>
+        <v>1.965808872982734</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.013911573873088</v>
+        <v>1.891390925053599</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3004559968850673</v>
+        <v>0.1057911347487495</v>
       </c>
       <c r="E17">
-        <v>0.2745305469281938</v>
+        <v>0.1596169253483097</v>
       </c>
       <c r="F17">
-        <v>0.9911793303454743</v>
+        <v>0.6515817938254216</v>
       </c>
       <c r="G17">
-        <v>0.4877190067274455</v>
+        <v>0.5755170062640929</v>
       </c>
       <c r="H17">
-        <v>0.5925435315692766</v>
+        <v>0.3484228042190836</v>
       </c>
       <c r="I17">
-        <v>0.7836655949454645</v>
+        <v>0.2233321882386483</v>
       </c>
       <c r="J17">
-        <v>0.3357243530356016</v>
+        <v>0.2877705305560454</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.353249508975864</v>
+        <v>0.8390819675180694</v>
       </c>
       <c r="M17">
-        <v>0.301366933029648</v>
+        <v>0.6263571239937633</v>
       </c>
       <c r="N17">
-        <v>1.60934548797789</v>
+        <v>1.382859876687178</v>
       </c>
       <c r="O17">
-        <v>2.12090056216033</v>
+        <v>1.901435881462334</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.000327631229254</v>
+        <v>1.845811082807586</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3008792070805564</v>
+        <v>0.1063158935350206</v>
       </c>
       <c r="E18">
-        <v>0.2744744888863409</v>
+        <v>0.1590199762071975</v>
       </c>
       <c r="F18">
-        <v>0.9905051151655115</v>
+        <v>0.6418599803546954</v>
       </c>
       <c r="G18">
-        <v>0.4853793742132808</v>
+        <v>0.5629348259373614</v>
       </c>
       <c r="H18">
-        <v>0.5922528078845346</v>
+        <v>0.3436908120583553</v>
       </c>
       <c r="I18">
-        <v>0.7862172322805114</v>
+        <v>0.2274044039668301</v>
       </c>
       <c r="J18">
-        <v>0.3349025695688681</v>
+        <v>0.2849424441105555</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3470459975563926</v>
+        <v>0.8184551258884767</v>
       </c>
       <c r="M18">
-        <v>0.2967961674959767</v>
+        <v>0.6110984074327703</v>
       </c>
       <c r="N18">
-        <v>1.607294218617426</v>
+        <v>1.373882536637652</v>
       </c>
       <c r="O18">
-        <v>2.115269557527483</v>
+        <v>1.864775595538561</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9957299989193586</v>
+        <v>1.830384040043157</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3010236941924274</v>
+        <v>0.1064951668527048</v>
       </c>
       <c r="E19">
-        <v>0.2744562173828271</v>
+        <v>0.1588187435656963</v>
       </c>
       <c r="F19">
-        <v>0.9902861497901796</v>
+        <v>0.6385911900956174</v>
       </c>
       <c r="G19">
-        <v>0.4845926838947463</v>
+        <v>0.5586931396873922</v>
       </c>
       <c r="H19">
-        <v>0.5921590635385172</v>
+        <v>0.3420992954571744</v>
       </c>
       <c r="I19">
-        <v>0.7870878494092772</v>
+        <v>0.2287961963891703</v>
       </c>
       <c r="J19">
-        <v>0.3346247962140154</v>
+        <v>0.2839854492423797</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.344945640065589</v>
+        <v>0.8114734886385406</v>
       </c>
       <c r="M19">
-        <v>0.2952488965159574</v>
+        <v>0.6059337785469339</v>
       </c>
       <c r="N19">
-        <v>1.606608305119565</v>
+        <v>1.370863016593248</v>
       </c>
       <c r="O19">
-        <v>2.113384235614006</v>
+        <v>1.852424249354414</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.016426434671473</v>
+        <v>1.899829419043186</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3003782377501656</v>
+        <v>0.1056947748081645</v>
       </c>
       <c r="E20">
-        <v>0.2745412582051507</v>
+        <v>0.1597278271872753</v>
       </c>
       <c r="F20">
-        <v>0.9913085352459206</v>
+        <v>0.6533920543487923</v>
       </c>
       <c r="G20">
-        <v>0.4881546180067318</v>
+        <v>0.5778545560786341</v>
       </c>
       <c r="H20">
-        <v>0.5925995650389382</v>
+        <v>0.3493037045073351</v>
       </c>
       <c r="I20">
-        <v>0.7831965157179228</v>
+        <v>0.2225847300061701</v>
       </c>
       <c r="J20">
-        <v>0.3358766681771854</v>
+        <v>0.2882942056259878</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3543976572473184</v>
+        <v>0.8429006429554988</v>
       </c>
       <c r="M20">
-        <v>0.30221302422013</v>
+        <v>0.629182007674288</v>
       </c>
       <c r="N20">
-        <v>1.60972921785914</v>
+        <v>1.384530968536708</v>
       </c>
       <c r="O20">
-        <v>2.121952822389261</v>
+        <v>1.908250311713346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.086073402294005</v>
+        <v>2.13358434548428</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2982925997339878</v>
+        <v>0.103117790993263</v>
       </c>
       <c r="E21">
-        <v>0.274876000368927</v>
+        <v>0.1628437560303553</v>
       </c>
       <c r="F21">
-        <v>0.9953911096536672</v>
+        <v>0.7047832406862398</v>
       </c>
       <c r="G21">
-        <v>0.5005027149957897</v>
+        <v>0.6435897510810236</v>
       </c>
       <c r="H21">
-        <v>0.5944054949056152</v>
+        <v>0.3742839948001091</v>
       </c>
       <c r="I21">
-        <v>0.7705867332991057</v>
+        <v>0.2026432338552735</v>
       </c>
       <c r="J21">
-        <v>0.3401147575201051</v>
+        <v>0.3028091917942746</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.38615602880094</v>
+        <v>0.9486723459279176</v>
       </c>
       <c r="M21">
-        <v>0.325631460818542</v>
+        <v>0.7074276769433894</v>
       </c>
       <c r="N21">
-        <v>1.620811524473908</v>
+        <v>1.431887012379917</v>
       </c>
       <c r="O21">
-        <v>2.152219024401177</v>
+        <v>2.100301589588241</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.131667069208106</v>
+        <v>2.286730738424296</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2969912037509665</v>
+        <v>0.1015184387218642</v>
       </c>
       <c r="E22">
-        <v>0.2751309662552153</v>
+        <v>0.1649261356852705</v>
       </c>
       <c r="F22">
-        <v>0.9985415308465093</v>
+        <v>0.7396982107856473</v>
       </c>
       <c r="G22">
-        <v>0.5088565248776717</v>
+        <v>0.687652013109826</v>
       </c>
       <c r="H22">
-        <v>0.5958282841270233</v>
+        <v>0.3912279798974652</v>
       </c>
       <c r="I22">
-        <v>0.7626918908378797</v>
+        <v>0.1903301178387697</v>
       </c>
       <c r="J22">
-        <v>0.3429077017945943</v>
+        <v>0.3123242651491935</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4069099969138676</v>
+        <v>1.017964377278986</v>
       </c>
       <c r="M22">
-        <v>0.3409495406135079</v>
+        <v>0.7586857227891457</v>
       </c>
       <c r="N22">
-        <v>1.628496015417937</v>
+        <v>1.463952407186198</v>
       </c>
       <c r="O22">
-        <v>2.173099792863042</v>
+        <v>2.229436382721246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.107326391985396</v>
+        <v>2.204955730313998</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2976801500889108</v>
+        <v>0.1023641980248802</v>
       </c>
       <c r="E23">
-        <v>0.2749915963528728</v>
+        <v>0.1638105194615633</v>
       </c>
       <c r="F23">
-        <v>0.9968159921770052</v>
+        <v>0.720936042578316</v>
       </c>
       <c r="G23">
-        <v>0.5043719867600913</v>
+        <v>0.6640284663263571</v>
       </c>
       <c r="H23">
-        <v>0.5950467503090522</v>
+        <v>0.3821254142184927</v>
       </c>
       <c r="I23">
-        <v>0.7668738146125635</v>
+        <v>0.1968341526619874</v>
       </c>
       <c r="J23">
-        <v>0.3414149867020626</v>
+        <v>0.3072432442341864</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3958335617247144</v>
+        <v>0.9809649333573986</v>
       </c>
       <c r="M23">
-        <v>0.3327729568024864</v>
+        <v>0.731316058204456</v>
       </c>
       <c r="N23">
-        <v>1.624354446152211</v>
+        <v>1.446733329451732</v>
       </c>
       <c r="O23">
-        <v>2.161854725341385</v>
+        <v>2.160165284928041</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.015289455803213</v>
+        <v>1.896014335511239</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3004133704061438</v>
+        <v>0.1057383093065334</v>
       </c>
       <c r="E24">
-        <v>0.2745364028992618</v>
+        <v>0.1596776732794893</v>
       </c>
       <c r="F24">
-        <v>0.9912499538804056</v>
+        <v>0.6525732272799374</v>
       </c>
       <c r="G24">
-        <v>0.4879575822977671</v>
+        <v>0.5767974256667969</v>
       </c>
       <c r="H24">
-        <v>0.5925741477370394</v>
+        <v>0.3489052594558331</v>
       </c>
       <c r="I24">
-        <v>0.7834084617959816</v>
+        <v>0.2229224118098476</v>
       </c>
       <c r="J24">
-        <v>0.3358077992362922</v>
+        <v>0.2880574461936618</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3538785875861379</v>
+        <v>0.8411742054162517</v>
       </c>
       <c r="M24">
-        <v>0.3018305073755769</v>
+        <v>0.6279048665746316</v>
       </c>
       <c r="N24">
-        <v>1.609555580649427</v>
+        <v>1.383775112916481</v>
       </c>
       <c r="O24">
-        <v>2.121476718507836</v>
+        <v>1.90516842592416</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9163778276064818</v>
+        <v>1.564028481990221</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3036276040710204</v>
+        <v>0.1097344915860243</v>
       </c>
       <c r="E25">
-        <v>0.2742029956379639</v>
+        <v>0.1554166017179064</v>
       </c>
       <c r="F25">
-        <v>0.9873187479645225</v>
+        <v>0.5839701173897112</v>
       </c>
       <c r="G25">
-        <v>0.4714693270740327</v>
+        <v>0.4868578144840541</v>
       </c>
       <c r="H25">
-        <v>0.5909507398533975</v>
+        <v>0.3154671658474228</v>
       </c>
       <c r="I25">
-        <v>0.8027300789112628</v>
+        <v>0.2539749009632839</v>
       </c>
       <c r="J25">
-        <v>0.3298634027263674</v>
+        <v>0.2674843178625039</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3086317867320361</v>
+        <v>0.6909065714389726</v>
       </c>
       <c r="M25">
-        <v>0.2685222276201884</v>
+        <v>0.5167510098010766</v>
       </c>
       <c r="N25">
-        <v>1.595507785447779</v>
+        <v>1.320355107042161</v>
       </c>
       <c r="O25">
-        <v>2.082649788875273</v>
+        <v>1.643895005349947</v>
       </c>
     </row>
   </sheetData>
